--- a/learning-java/src/main/java/com/jasmine/Java高级/数据库/MySql/优化/执行计划explain.xlsx
+++ b/learning-java/src/main/java/com/jasmine/Java高级/数据库/MySql/优化/执行计划explain.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27195" windowHeight="13140"/>
+    <workbookView windowWidth="23940" windowHeight="7280"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63">
   <si>
     <t>ID</t>
   </si>
@@ -216,11 +216,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -259,9 +259,47 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -273,31 +311,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -312,59 +351,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,6 +366,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -386,30 +388,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -442,19 +435,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,163 +579,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -706,6 +693,17 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top style="thin">
         <color auto="1"/>
@@ -721,17 +719,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -772,60 +759,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -841,10 +774,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -873,151 +804,207 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1036,15 +1023,25 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1052,22 +1049,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1077,47 +1064,47 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1145,54 +1132,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1459,15 +1446,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="11.2"/>
   <cols>
     <col min="1" max="3" width="8.75" style="2" customWidth="1"/>
     <col min="4" max="4" width="9.25" style="2" customWidth="1"/>
@@ -1493,7 +1480,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
@@ -1523,32 +1510,32 @@
       <c r="P1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="12" t="s">
         <v>11</v>
       </c>
       <c r="R1" s="39"/>
     </row>
     <row r="2" ht="12.75" customHeight="1" spans="1:18">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I2" s="18" t="s">
@@ -1563,14 +1550,14 @@
       <c r="L2" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="21" t="s">
+      <c r="M2" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="22"/>
-      <c r="O2" s="23" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="P2" s="30" t="s">
         <v>25</v>
       </c>
       <c r="Q2" s="40" t="s">
@@ -1578,260 +1565,260 @@
       </c>
       <c r="R2" s="41"/>
     </row>
-    <row r="3" spans="1:18">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8" t="s">
+    <row r="3" ht="23" spans="1:18">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="31"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
       <c r="Q3" s="40" t="s">
         <v>31</v>
       </c>
       <c r="R3" s="41"/>
     </row>
-    <row r="4" ht="24" spans="1:18">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8" t="s">
+    <row r="4" ht="23" spans="1:18">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="9" t="s">
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="9" t="s">
+      <c r="H4" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="31"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="34"/>
       <c r="Q4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="R4" s="41"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="9" t="s">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
-      <c r="O5" s="30"/>
-      <c r="P5" s="31"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
       <c r="Q5" s="40" t="s">
         <v>39</v>
       </c>
       <c r="R5" s="41"/>
     </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8" t="s">
+    <row r="6" ht="12" spans="1:18">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="9" t="s">
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="13" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="41"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:18">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8" t="s">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="11" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="9"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="33"/>
+      <c r="P7" s="34"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="41"/>
     </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="12" t="s">
+    <row r="8" ht="12" spans="1:18">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="9" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="9"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="42"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="1:17">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="9" t="s">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="9"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="13"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="15" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="31"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
       <c r="Q10" s="43"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="31"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
       <c r="Q11" s="43"/>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="9" t="s">
+    <row r="12" ht="12" spans="1:17">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="H12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="33"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="35"/>
       <c r="N12" s="36"/>
       <c r="O12" s="37"/>
@@ -1839,144 +1826,144 @@
       <c r="Q12" s="43"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+      <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:22">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+      <c r="U16" s="11"/>
+      <c r="V16" s="11"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+      <c r="U17" s="11"/>
+      <c r="V17" s="11"/>
     </row>
     <row r="18" spans="1:22">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
-      <c r="Q18" s="17"/>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="11"/>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="11"/>
     </row>
     <row r="19" spans="1:22">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="11"/>
+      <c r="T19" s="11"/>
+      <c r="U19" s="11"/>
+      <c r="V19" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="31">
@@ -2012,7 +1999,7 @@
     <mergeCell ref="A2:B12"/>
     <mergeCell ref="M2:N12"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
